--- a/biology/Médecine/1242_en_santé_et_médecine/1242_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1242_en_santé_et_médecine/1242_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1242_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1242_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1242 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1242_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1242_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Des experts, parmi lesquels un certain G. Petragoricensis, médecin, sont consultés sur l'état de santé de Raymond VII, comte de Toulouse, qui, « étant gravement malade, au château de Penne, demand[e] d'être relevé des sentences d'excommunication qu'il [a] pu encourir[1] ».
-Guillaume de Modène, légat du pape, décide que tous les hôpitaux de Prusse seront placés sous la direction de l'ordre Teutonique[2].
-Fondation de l'hôtel-Dieu de Lessines (hôpital Notre-Dame à la Rose) dans le comté de Hainaut[3].
-Établissement des bains de Pfäfers, en Suisse, dans l'actuel canton de Saint-Gall, par les moines bénédictins[4].
-Un hôtel-Dieu est attesté à Clermont-Ferrand, en Auvergne[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Des experts, parmi lesquels un certain G. Petragoricensis, médecin, sont consultés sur l'état de santé de Raymond VII, comte de Toulouse, qui, « étant gravement malade, au château de Penne, demand[e] d'être relevé des sentences d'excommunication qu'il [a] pu encourir ».
+Guillaume de Modène, légat du pape, décide que tous les hôpitaux de Prusse seront placés sous la direction de l'ordre Teutonique.
+Fondation de l'hôtel-Dieu de Lessines (hôpital Notre-Dame à la Rose) dans le comté de Hainaut.
+Établissement des bains de Pfäfers, en Suisse, dans l'actuel canton de Saint-Gall, par les moines bénédictins.
+Un hôtel-Dieu est attesté à Clermont-Ferrand, en Auvergne.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1242_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1242_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Song Ci, médecin légiste chinois, termine la rédaction du Xi Yuan Ji Lu (« Cas collectés d'injustices réparées »), premier traité de médecine légale[6].
-Ibn Nafis, médecin arabe, achève son commentaire de l'Anatomie du Canon de la médecine d'Avicenne (Al-Shamil fi al-Tibb) où, plus de trois siècles avant la publication du De motu cordis de Harvey, il est le premier à décrire la petite circulation sanguine, ou circulation pulmonaire[7],[8].
-Le médecin et historien damascène Ibn Abi Usaybi'a rédige ses Vies de médecins[9], compilation de plus de quatre cents biographies de savants qui sera publiée en 1245 ou 1246[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Song Ci, médecin légiste chinois, termine la rédaction du Xi Yuan Ji Lu (« Cas collectés d'injustices réparées »), premier traité de médecine légale.
+Ibn Nafis, médecin arabe, achève son commentaire de l'Anatomie du Canon de la médecine d'Avicenne (Al-Shamil fi al-Tibb) où, plus de trois siècles avant la publication du De motu cordis de Harvey, il est le premier à décrire la petite circulation sanguine, ou circulation pulmonaire,.
+Le médecin et historien damascène Ibn Abi Usaybi'a rédige ses Vies de médecins, compilation de plus de quatre cents biographies de savants qui sera publiée en 1245 ou 1246.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1242_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1242_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. G. Petragoricensis, médecin ; il examine Raymond VII, comte de Toulouse, gravement malade au château de Penne en Agenois[1].
-Fl. Pierre, médecin à Avignon, Martin, médecin, chanoine de la cathédrale de Troyes, Alberti, barbier à Montpellier et Paulin, barbier et bourgeois de Poitiers[11].
-Vers 1242-1243 : fl. Guillaume Bernardi Dairos, médecin cathare ; il visite des malades à Puylaurens[1].
-1242-1255 : fl. Pierre, médecin de Jonzac, en Guyenne, pensionné par le roi Henri III[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. G. Petragoricensis, médecin ; il examine Raymond VII, comte de Toulouse, gravement malade au château de Penne en Agenois.
+Fl. Pierre, médecin à Avignon, Martin, médecin, chanoine de la cathédrale de Troyes, Alberti, barbier à Montpellier et Paulin, barbier et bourgeois de Poitiers.
+Vers 1242-1243 : fl. Guillaume Bernardi Dairos, médecin cathare ; il visite des malades à Puylaurens.
+1242-1255 : fl. Pierre, médecin de Jonzac, en Guyenne, pensionné par le roi Henri III.</t>
         </is>
       </c>
     </row>
